--- a/data/metadata.xlsx
+++ b/data/metadata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="14805"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="14805" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="591">
   <si>
     <t>J3_S_ana_R1_S1</t>
   </si>
@@ -57,33 +57,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Boxfarbe</t>
-  </si>
-  <si>
-    <t>Boxnummer (Geftrierschrank)</t>
-  </si>
-  <si>
-    <t>Probenbezeichnung</t>
-  </si>
-  <si>
-    <t>Probenname (Beutel)</t>
-  </si>
-  <si>
-    <t>Probenbezeichnung (Eppendorf)</t>
-  </si>
-  <si>
-    <t>Menge in g</t>
-  </si>
-  <si>
-    <t>DNA Konzentration ng/µl</t>
-  </si>
-  <si>
-    <t>260/280</t>
-  </si>
-  <si>
-    <t>260/230</t>
-  </si>
-  <si>
     <t>STAMS</t>
   </si>
   <si>
@@ -603,9 +576,6 @@
     <t>J1_P_ref_R7_S5</t>
   </si>
   <si>
-    <t>Probe</t>
-  </si>
-  <si>
     <t>SampleID</t>
   </si>
   <si>
@@ -1023,18 +993,9 @@
     <t>New label</t>
   </si>
   <si>
-    <t>Old label</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>DELETED</t>
-  </si>
-  <si>
-    <t>Updated with sample labels from Microsynth_EHIL samples.xlsx</t>
-  </si>
-  <si>
     <t>Probename_Beutel</t>
   </si>
   <si>
@@ -1092,9 +1053,6 @@
     <t>16S_Insert</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Unique sample ID</t>
   </si>
   <si>
@@ -1798,6 +1756,51 @@
   </si>
   <si>
     <t>soil</t>
+  </si>
+  <si>
+    <t>Date of sample collection</t>
+  </si>
+  <si>
+    <t>Sample material from which the DNA was isolated</t>
+  </si>
+  <si>
+    <t>Number of replicate</t>
+  </si>
+  <si>
+    <t>Internal identifier</t>
+  </si>
+  <si>
+    <t>Identifier for the sequencing assignment</t>
+  </si>
+  <si>
+    <t>Label for files uploaded to NCBI containing 16S sequences</t>
+  </si>
+  <si>
+    <t>Label for files uploaded to NCBI containing ITS sequences</t>
+  </si>
+  <si>
+    <t>Primer set used for 16S sequencing</t>
+  </si>
+  <si>
+    <t>Primer set used for ITS sequencing</t>
+  </si>
+  <si>
+    <t>Forward primer for 16S sequencing</t>
+  </si>
+  <si>
+    <t>Forward primer for ITS sequencing</t>
+  </si>
+  <si>
+    <t>Reverse primer for 16S sequencing</t>
+  </si>
+  <si>
+    <t>Insert size for 16S sequencing</t>
+  </si>
+  <si>
+    <t>Insert size for ITS sequencing</t>
+  </si>
+  <si>
+    <t>Reverse primer for ITS sequencing</t>
   </si>
 </sst>
 </file>
@@ -1865,7 +1868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1890,6 +1893,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2172,334 +2184,287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D31"/>
+  <dimension ref="A2:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="97.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="97.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C29" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="1" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>345</v>
+      <c r="C31" s="1" t="s">
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -2511,8 +2476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC117"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC1" sqref="A1:AC1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2550,91 +2515,91 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="P1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="Q1" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="U1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="V1" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>353</v>
-      </c>
       <c r="Y1" s="5" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -2645,16 +2610,16 @@
         <v>39</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="E2" s="6">
         <v>0</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G2" s="4">
         <v>3</v>
@@ -2672,16 +2637,16 @@
         <v>44468</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M2" s="7">
         <v>43983</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="P2" s="4">
         <v>0.50190000000000001</v>
@@ -2696,31 +2661,31 @@
         <v>1.88</v>
       </c>
       <c r="T2" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X2" s="5">
         <v>460</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC2" s="5">
         <v>350</v>
@@ -2728,22 +2693,22 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B3" s="4">
         <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E3" s="6">
         <v>0.05</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G3" s="4">
         <v>3</v>
@@ -2761,16 +2726,16 @@
         <v>44468</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M3" s="7">
         <v>44322</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="P3" s="4">
         <v>0.50490000000000002</v>
@@ -2785,31 +2750,31 @@
         <v>1.8</v>
       </c>
       <c r="T3" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X3" s="5">
         <v>460</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC3" s="5">
         <v>350</v>
@@ -2817,22 +2782,22 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B4" s="4">
         <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E4" s="6">
         <v>0.15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G4" s="4">
         <v>3</v>
@@ -2850,16 +2815,16 @@
         <v>44468</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M4" s="7">
         <v>44322</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="P4" s="4">
         <v>0.50380000000000003</v>
@@ -2874,31 +2839,31 @@
         <v>1.62</v>
       </c>
       <c r="T4" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X4" s="5">
         <v>460</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC4" s="5">
         <v>350</v>
@@ -2912,16 +2877,16 @@
         <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G5" s="4">
         <v>3</v>
@@ -2939,16 +2904,16 @@
         <v>44468</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M5" s="7">
         <v>44327</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="P5" s="4">
         <v>0.50080000000000002</v>
@@ -2963,31 +2928,31 @@
         <v>1.96</v>
       </c>
       <c r="T5" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X5" s="5">
         <v>460</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC5" s="5">
         <v>350</v>
@@ -3001,16 +2966,16 @@
         <v>185</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="E6" s="6">
         <v>0</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G6" s="4">
         <v>3</v>
@@ -3028,10 +2993,10 @@
         <v>44468</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4">
@@ -3047,31 +3012,31 @@
         <v>1.94</v>
       </c>
       <c r="T6" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X6" s="5">
         <v>460</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC6" s="5">
         <v>350</v>
@@ -3079,22 +3044,22 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B7" s="4">
         <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E7" s="6">
         <v>0.05</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G7" s="4">
         <v>3</v>
@@ -3112,16 +3077,16 @@
         <v>44468</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M7" s="7">
         <v>44468</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="P7" s="4">
         <v>0.502</v>
@@ -3136,31 +3101,31 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="T7" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X7" s="5">
         <v>460</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC7" s="5">
         <v>350</v>
@@ -3168,22 +3133,22 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B8" s="4">
         <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E8" s="6">
         <v>0.15</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G8" s="4">
         <v>3</v>
@@ -3201,16 +3166,16 @@
         <v>44468</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M8" s="7">
         <v>44322</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="P8" s="4">
         <v>0.50700000000000001</v>
@@ -3225,31 +3190,31 @@
         <v>1.41</v>
       </c>
       <c r="T8" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X8" s="5">
         <v>460</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC8" s="5">
         <v>350</v>
@@ -3263,16 +3228,16 @@
         <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G9" s="4">
         <v>3</v>
@@ -3290,16 +3255,16 @@
         <v>44468</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M9" s="7">
         <v>44468</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="P9" s="4">
         <v>0.50049999999999994</v>
@@ -3314,31 +3279,31 @@
         <v>1.29</v>
       </c>
       <c r="T9" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X9" s="5">
         <v>460</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB9" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC9" s="5">
         <v>350</v>
@@ -3352,16 +3317,16 @@
         <v>41</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="E10" s="6">
         <v>0</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G10" s="4">
         <v>3</v>
@@ -3379,16 +3344,16 @@
         <v>44468</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M10" s="7">
         <v>43983</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="P10" s="4">
         <v>0.50270000000000004</v>
@@ -3403,31 +3368,31 @@
         <v>2.5</v>
       </c>
       <c r="T10" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X10" s="5">
         <v>460</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC10" s="5">
         <v>350</v>
@@ -3435,22 +3400,22 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B11" s="4">
         <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E11" s="6">
         <v>0.05</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G11" s="4">
         <v>3</v>
@@ -3468,16 +3433,16 @@
         <v>44468</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M11" s="7">
         <v>44468</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="P11" s="4">
         <v>0.50219999999999998</v>
@@ -3492,31 +3457,31 @@
         <v>1.48</v>
       </c>
       <c r="T11" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X11" s="5">
         <v>460</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB11" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC11" s="5">
         <v>350</v>
@@ -3524,22 +3489,22 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B12" s="5">
         <v>214</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E12" s="6">
         <v>0.15</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G12" s="4">
         <v>3</v>
@@ -3557,10 +3522,10 @@
         <v>44468</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P12" s="4">
         <v>0.50580000000000003</v>
@@ -3575,31 +3540,31 @@
         <v>1.93</v>
       </c>
       <c r="T12" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X12" s="5">
         <v>460</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB12" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC12" s="5">
         <v>350</v>
@@ -3613,16 +3578,16 @@
         <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G13" s="4">
         <v>3</v>
@@ -3640,16 +3605,16 @@
         <v>44468</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M13" s="7">
         <v>43983</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P13" s="4">
         <v>0.50219999999999998</v>
@@ -3664,31 +3629,31 @@
         <v>1.88</v>
       </c>
       <c r="T13" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X13" s="5">
         <v>460</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB13" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC13" s="5">
         <v>350</v>
@@ -3702,16 +3667,16 @@
         <v>43</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G14" s="4">
         <v>3</v>
@@ -3729,16 +3694,16 @@
         <v>44468</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M14" s="7">
         <v>43983</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="P14" s="4">
         <v>0.50660000000000005</v>
@@ -3753,31 +3718,31 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="T14" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X14" s="5">
         <v>460</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB14" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC14" s="5">
         <v>350</v>
@@ -3785,22 +3750,22 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B15" s="4">
         <v>31</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E15" s="6">
         <v>0.05</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G15" s="4">
         <v>3</v>
@@ -3818,16 +3783,16 @@
         <v>44468</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M15" s="7">
         <v>44328</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="P15" s="4">
         <v>0.50229999999999997</v>
@@ -3842,31 +3807,31 @@
         <v>1.64</v>
       </c>
       <c r="T15" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X15" s="5">
         <v>460</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC15" s="5">
         <v>350</v>
@@ -3874,22 +3839,22 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B16" s="4">
         <v>3</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E16" s="6">
         <v>0.15</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G16" s="4">
         <v>3</v>
@@ -3907,16 +3872,16 @@
         <v>44468</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M16" s="7">
         <v>44468</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="P16" s="4">
         <v>0.50419999999999998</v>
@@ -3931,31 +3896,31 @@
         <v>1.33</v>
       </c>
       <c r="T16" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X16" s="5">
         <v>460</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC16" s="5">
         <v>350</v>
@@ -3969,16 +3934,16 @@
         <v>24</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G17" s="4">
         <v>3</v>
@@ -3996,16 +3961,16 @@
         <v>44468</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M17" s="7">
         <v>44322</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="P17" s="4">
         <v>0.50519999999999998</v>
@@ -4020,31 +3985,31 @@
         <v>1.56</v>
       </c>
       <c r="T17" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X17" s="5">
         <v>460</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB17" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC17" s="5">
         <v>350</v>
@@ -4052,28 +4017,28 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B18" s="4">
         <v>121</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="E18" s="6">
         <v>0</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G18" s="4">
         <v>2</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="I18" s="4">
         <v>1</v>
@@ -4085,16 +4050,16 @@
         <v>44327</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M18" s="7">
         <v>44328</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="P18" s="4">
         <v>0.49919999999999998</v>
@@ -4109,31 +4074,31 @@
         <v>1.29</v>
       </c>
       <c r="T18" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X18" s="5">
         <v>460</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB18" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC18" s="5">
         <v>350</v>
@@ -4141,28 +4106,28 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B19" s="4">
         <v>122</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="E19" s="6">
         <v>0</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G19" s="4">
         <v>2</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="I19" s="4">
         <v>2</v>
@@ -4174,16 +4139,16 @@
         <v>44327</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M19" s="7">
         <v>44328</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="P19" s="4">
         <v>0.50019999999999998</v>
@@ -4198,31 +4163,31 @@
         <v>1.27</v>
       </c>
       <c r="T19" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X19" s="5">
         <v>460</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB19" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC19" s="5">
         <v>350</v>
@@ -4230,28 +4195,28 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B20" s="4">
         <v>123</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="E20" s="6">
         <v>0</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G20" s="4">
         <v>2</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="I20" s="4">
         <v>3</v>
@@ -4263,16 +4228,16 @@
         <v>44327</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M20" s="7">
         <v>44328</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="P20" s="4">
         <v>0.50490000000000002</v>
@@ -4287,31 +4252,31 @@
         <v>1.23</v>
       </c>
       <c r="T20" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X20" s="5">
         <v>460</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB20" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC20" s="5">
         <v>350</v>
@@ -4319,28 +4284,28 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B21" s="4">
         <v>149</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="E21" s="6">
         <v>0</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G21" s="4">
         <v>2</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="I21" s="4">
         <v>4</v>
@@ -4352,16 +4317,16 @@
         <v>44327</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M21" s="7">
         <v>44328</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="P21" s="4">
         <v>0.499</v>
@@ -4376,31 +4341,31 @@
         <v>1.9</v>
       </c>
       <c r="T21" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X21" s="5">
         <v>460</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB21" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC21" s="5">
         <v>350</v>
@@ -4408,28 +4373,28 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B22" s="4">
         <v>165</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>375</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>389</v>
       </c>
       <c r="E22" s="6">
         <v>0.05</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G22" s="4">
         <v>2</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="I22" s="4">
         <v>1</v>
@@ -4441,16 +4406,16 @@
         <v>44327</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M22" s="7">
         <v>44327</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="P22" s="4">
         <v>0.502</v>
@@ -4465,31 +4430,31 @@
         <v>1.79</v>
       </c>
       <c r="T22" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X22" s="5">
         <v>460</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB22" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC22" s="5">
         <v>350</v>
@@ -4497,28 +4462,28 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B23" s="4">
         <v>166</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E23" s="6">
         <v>0.05</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G23" s="4">
         <v>2</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="I23" s="4">
         <v>2</v>
@@ -4530,16 +4495,16 @@
         <v>44327</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M23" s="7">
         <v>44327</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="P23" s="4">
         <v>0.504</v>
@@ -4554,31 +4519,31 @@
         <v>1.78</v>
       </c>
       <c r="T23" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X23" s="5">
         <v>460</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB23" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC23" s="5">
         <v>350</v>
@@ -4586,28 +4551,28 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B24" s="4">
         <v>167</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E24" s="6">
         <v>0.05</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G24" s="4">
         <v>2</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="I24" s="4">
         <v>3</v>
@@ -4619,16 +4584,16 @@
         <v>44327</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M24" s="7">
         <v>44327</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P24" s="4">
         <v>0.50629999999999997</v>
@@ -4643,31 +4608,31 @@
         <v>1.98</v>
       </c>
       <c r="T24" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X24" s="5">
         <v>460</v>
       </c>
       <c r="Y24" s="5" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB24" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC24" s="5">
         <v>350</v>
@@ -4675,28 +4640,28 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B25" s="4">
         <v>168</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E25" s="6">
         <v>0.05</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G25" s="4">
         <v>2</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="I25" s="4">
         <v>4</v>
@@ -4708,16 +4673,16 @@
         <v>44327</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M25" s="7">
         <v>44327</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P25" s="4">
         <v>0.50139999999999996</v>
@@ -4732,31 +4697,31 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="T25" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X25" s="5">
         <v>460</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB25" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC25" s="5">
         <v>350</v>
@@ -4764,28 +4729,28 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B26" s="4">
         <v>154</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E26" s="6">
         <v>0.15</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G26" s="4">
         <v>2</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="I26" s="4">
         <v>1</v>
@@ -4797,16 +4762,16 @@
         <v>44327</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M26" s="7">
         <v>44327</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="P26" s="4">
         <v>0.50060000000000004</v>
@@ -4821,31 +4786,31 @@
         <v>1.39</v>
       </c>
       <c r="T26" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X26" s="5">
         <v>460</v>
       </c>
       <c r="Y26" s="5" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB26" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC26" s="5">
         <v>350</v>
@@ -4853,28 +4818,28 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B27" s="4">
         <v>155</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E27" s="6">
         <v>0.15</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G27" s="4">
         <v>2</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="I27" s="4">
         <v>2</v>
@@ -4886,16 +4851,16 @@
         <v>44327</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M27" s="7">
         <v>44327</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P27" s="4">
         <v>0.50039999999999996</v>
@@ -4910,31 +4875,31 @@
         <v>1.29</v>
       </c>
       <c r="T27" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X27" s="5">
         <v>460</v>
       </c>
       <c r="Y27" s="5" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB27" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC27" s="5">
         <v>350</v>
@@ -4942,28 +4907,28 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B28" s="4">
         <v>156</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E28" s="6">
         <v>0.15</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G28" s="4">
         <v>2</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="I28" s="4">
         <v>3</v>
@@ -4975,16 +4940,16 @@
         <v>44327</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M28" s="7">
         <v>44327</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="P28" s="4">
         <v>0.50660000000000005</v>
@@ -4999,31 +4964,31 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="T28" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X28" s="5">
         <v>460</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC28" s="5">
         <v>350</v>
@@ -5031,28 +4996,28 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B29" s="4">
         <v>157</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E29" s="6">
         <v>0.15</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G29" s="4">
         <v>2</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="I29" s="4">
         <v>4</v>
@@ -5064,16 +5029,16 @@
         <v>44327</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M29" s="7">
         <v>44327</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="P29" s="4">
         <v>0.50439999999999996</v>
@@ -5088,31 +5053,31 @@
         <v>1.73</v>
       </c>
       <c r="T29" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="U29" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V29" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W29" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X29" s="5">
         <v>460</v>
       </c>
       <c r="Y29" s="5" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="Z29" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA29" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB29" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC29" s="5">
         <v>350</v>
@@ -5120,28 +5085,28 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B30" s="4">
         <v>118</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G30" s="4">
         <v>2</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="I30" s="4">
         <v>1</v>
@@ -5153,16 +5118,16 @@
         <v>44327</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M30" s="7">
         <v>44327</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="P30" s="4">
         <v>0.50360000000000005</v>
@@ -5177,31 +5142,31 @@
         <v>1.65</v>
       </c>
       <c r="T30" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="U30" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V30" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W30" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X30" s="5">
         <v>460</v>
       </c>
       <c r="Y30" s="5" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="Z30" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA30" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB30" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC30" s="5">
         <v>350</v>
@@ -5209,28 +5174,28 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B31" s="4">
         <v>119</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G31" s="4">
         <v>2</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="I31" s="4">
         <v>2</v>
@@ -5242,16 +5207,16 @@
         <v>44327</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M31" s="7">
         <v>44327</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="P31" s="4">
         <v>0.50209999999999999</v>
@@ -5266,31 +5231,31 @@
         <v>1.9</v>
       </c>
       <c r="T31" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="U31" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V31" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W31" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X31" s="5">
         <v>460</v>
       </c>
       <c r="Y31" s="5" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="Z31" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA31" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB31" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC31" s="5">
         <v>350</v>
@@ -5298,28 +5263,28 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B32" s="4">
         <v>120</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G32" s="4">
         <v>2</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="I32" s="4">
         <v>3</v>
@@ -5331,16 +5296,16 @@
         <v>44327</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M32" s="7">
         <v>44327</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="P32" s="4">
         <v>0.50049999999999994</v>
@@ -5355,31 +5320,31 @@
         <v>1.6</v>
       </c>
       <c r="T32" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="U32" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V32" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W32" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X32" s="5">
         <v>460</v>
       </c>
       <c r="Y32" s="5" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="Z32" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA32" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB32" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC32" s="5">
         <v>350</v>
@@ -5387,28 +5352,28 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B33" s="4">
         <v>150</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G33" s="4">
         <v>2</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="I33" s="4">
         <v>4</v>
@@ -5420,16 +5385,16 @@
         <v>44327</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M33" s="7">
         <v>44327</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="P33" s="4">
         <v>0.50600000000000001</v>
@@ -5444,31 +5409,31 @@
         <v>1.03</v>
       </c>
       <c r="T33" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="U33" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V33" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W33" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X33" s="5">
         <v>460</v>
       </c>
       <c r="Y33" s="5" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="Z33" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA33" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB33" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC33" s="5">
         <v>350</v>
@@ -5476,22 +5441,22 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B34" s="4">
         <v>175</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="E34" s="6">
         <v>0</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G34" s="4">
         <v>1</v>
@@ -5506,13 +5471,13 @@
         <v>43983</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M34" s="7">
         <v>44348</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="O34" s="4"/>
       <c r="P34" s="4">
@@ -5528,31 +5493,31 @@
         <v>1.69</v>
       </c>
       <c r="T34" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="U34" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V34" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W34" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X34" s="5">
         <v>460</v>
       </c>
       <c r="Y34" s="5" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="Z34" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA34" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB34" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC34" s="5">
         <v>350</v>
@@ -5560,22 +5525,22 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B35" s="4">
         <v>178</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E35" s="6">
         <v>0.05</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G35" s="4">
         <v>1</v>
@@ -5590,13 +5555,13 @@
         <v>43983</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M35" s="7">
         <v>44348</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="O35" s="4"/>
       <c r="P35" s="4">
@@ -5612,31 +5577,31 @@
         <v>1.52</v>
       </c>
       <c r="T35" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="U35" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V35" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W35" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X35" s="5">
         <v>460</v>
       </c>
       <c r="Y35" s="5" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="Z35" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA35" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB35" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC35" s="5">
         <v>350</v>
@@ -5644,22 +5609,22 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B36" s="4">
         <v>190</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E36" s="6">
         <v>0.15</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G36" s="4">
         <v>1</v>
@@ -5674,13 +5639,13 @@
         <v>43983</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M36" s="7">
         <v>44348</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="O36" s="4"/>
       <c r="P36" s="4">
@@ -5696,31 +5661,31 @@
         <v>1.87</v>
       </c>
       <c r="T36" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="U36" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V36" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W36" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X36" s="5">
         <v>460</v>
       </c>
       <c r="Y36" s="5" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="Z36" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA36" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB36" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC36" s="5">
         <v>350</v>
@@ -5728,22 +5693,22 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B37" s="4">
         <v>177</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G37" s="4">
         <v>1</v>
@@ -5758,13 +5723,13 @@
         <v>43983</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M37" s="7">
         <v>44348</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="O37" s="4"/>
       <c r="P37" s="4">
@@ -5780,31 +5745,31 @@
         <v>1.83</v>
       </c>
       <c r="T37" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="U37" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V37" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W37" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X37" s="5">
         <v>460</v>
       </c>
       <c r="Y37" s="5" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="Z37" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA37" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB37" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC37" s="5">
         <v>350</v>
@@ -5812,22 +5777,22 @@
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B38" s="4">
         <v>198</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="E38" s="6">
         <v>0</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G38" s="4">
         <v>1</v>
@@ -5842,13 +5807,13 @@
         <v>43983</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M38" s="7">
         <v>44348</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="O38" s="4"/>
       <c r="P38" s="4">
@@ -5864,31 +5829,31 @@
         <v>1.56</v>
       </c>
       <c r="T38" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="U38" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V38" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W38" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X38" s="5">
         <v>460</v>
       </c>
       <c r="Y38" s="5" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="Z38" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA38" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB38" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC38" s="5">
         <v>350</v>
@@ -5896,22 +5861,22 @@
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B39" s="4">
         <v>139</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E39" s="6">
         <v>0.05</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G39" s="4">
         <v>1</v>
@@ -5929,16 +5894,16 @@
         <v>43983</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M39" s="7">
         <v>43983</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="P39" s="4">
         <v>0.49909999999999999</v>
@@ -5953,31 +5918,31 @@
         <v>1.35</v>
       </c>
       <c r="T39" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="U39" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V39" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W39" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X39" s="5">
         <v>460</v>
       </c>
       <c r="Y39" s="5" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="Z39" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA39" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB39" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC39" s="5">
         <v>350</v>
@@ -5985,22 +5950,22 @@
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B40" s="4">
         <v>199</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E40" s="6">
         <v>0.15</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G40" s="4">
         <v>1</v>
@@ -6015,13 +5980,13 @@
         <v>43983</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M40" s="7">
         <v>44348</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="O40" s="4"/>
       <c r="P40" s="4">
@@ -6037,31 +6002,31 @@
         <v>1.71</v>
       </c>
       <c r="T40" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="U40" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V40" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W40" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X40" s="5">
         <v>460</v>
       </c>
       <c r="Y40" s="5" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="Z40" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA40" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB40" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC40" s="5">
         <v>350</v>
@@ -6069,22 +6034,22 @@
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B41" s="4">
         <v>200</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G41" s="4">
         <v>1</v>
@@ -6099,13 +6064,13 @@
         <v>43983</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M41" s="7">
         <v>44348</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="O41" s="4"/>
       <c r="P41" s="4">
@@ -6121,31 +6086,31 @@
         <v>1.85</v>
       </c>
       <c r="T41" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="U41" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V41" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W41" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X41" s="5">
         <v>460</v>
       </c>
       <c r="Y41" s="5" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="Z41" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA41" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB41" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC41" s="5">
         <v>350</v>
@@ -6153,22 +6118,22 @@
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B42" s="4">
         <v>144</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="E42" s="6">
         <v>0</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G42" s="4">
         <v>1</v>
@@ -6186,16 +6151,16 @@
         <v>43983</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M42" s="7">
         <v>43983</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="P42" s="4">
         <v>0.49930000000000002</v>
@@ -6210,31 +6175,31 @@
         <v>1.53</v>
       </c>
       <c r="T42" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="U42" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V42" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W42" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X42" s="5">
         <v>460</v>
       </c>
       <c r="Y42" s="5" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="Z42" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA42" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB42" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC42" s="5">
         <v>350</v>
@@ -6242,22 +6207,22 @@
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B43" s="4">
         <v>191</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E43" s="6">
         <v>0.05</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G43" s="4">
         <v>1</v>
@@ -6272,13 +6237,13 @@
         <v>43983</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M43" s="7">
         <v>44348</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="O43" s="4"/>
       <c r="P43" s="4">
@@ -6294,31 +6259,31 @@
         <v>1.64</v>
       </c>
       <c r="T43" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="U43" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V43" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W43" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X43" s="5">
         <v>460</v>
       </c>
       <c r="Y43" s="5" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="Z43" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA43" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB43" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC43" s="5">
         <v>350</v>
@@ -6326,22 +6291,22 @@
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B44" s="4">
         <v>176</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E44" s="6">
         <v>0.15</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G44" s="4">
         <v>1</v>
@@ -6356,13 +6321,13 @@
         <v>43983</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M44" s="7">
         <v>44348</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="O44" s="4"/>
       <c r="P44" s="4">
@@ -6378,31 +6343,31 @@
         <v>1.65</v>
       </c>
       <c r="T44" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="U44" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V44" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W44" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X44" s="5">
         <v>460</v>
       </c>
       <c r="Y44" s="5" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="Z44" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA44" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB44" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC44" s="5">
         <v>350</v>
@@ -6410,22 +6375,22 @@
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B45" s="4">
         <v>129</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G45" s="4">
         <v>1</v>
@@ -6443,16 +6408,16 @@
         <v>43983</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M45" s="7">
         <v>43983</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="P45" s="4">
         <v>0.50119999999999998</v>
@@ -6467,31 +6432,31 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="T45" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="U45" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V45" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W45" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X45" s="5">
         <v>460</v>
       </c>
       <c r="Y45" s="5" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="Z45" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA45" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB45" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC45" s="5">
         <v>350</v>
@@ -6499,22 +6464,22 @@
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B46" s="4">
         <v>125</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="E46" s="6">
         <v>0</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G46" s="4">
         <v>1</v>
@@ -6532,16 +6497,16 @@
         <v>43983</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M46" s="7">
         <v>43983</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="P46" s="4">
         <v>0.50160000000000005</v>
@@ -6556,31 +6521,31 @@
         <v>1.2</v>
       </c>
       <c r="T46" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="U46" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V46" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W46" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X46" s="5">
         <v>460</v>
       </c>
       <c r="Y46" s="5" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="Z46" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA46" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB46" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC46" s="5">
         <v>350</v>
@@ -6588,22 +6553,22 @@
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B47" s="4">
         <v>145</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E47" s="6">
         <v>0.05</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G47" s="4">
         <v>1</v>
@@ -6621,16 +6586,16 @@
         <v>43983</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M47" s="7">
         <v>43983</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="P47" s="4">
         <v>0.50529999999999997</v>
@@ -6645,31 +6610,31 @@
         <v>1.54</v>
       </c>
       <c r="T47" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="U47" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V47" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W47" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X47" s="5">
         <v>460</v>
       </c>
       <c r="Y47" s="5" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="Z47" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA47" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB47" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC47" s="5">
         <v>350</v>
@@ -6677,22 +6642,22 @@
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B48" s="4">
         <v>192</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E48" s="6">
         <v>0.15</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G48" s="4">
         <v>1</v>
@@ -6707,13 +6672,13 @@
         <v>43983</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M48" s="7">
         <v>44348</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="O48" s="4"/>
       <c r="P48" s="4">
@@ -6729,31 +6694,31 @@
         <v>1.57</v>
       </c>
       <c r="T48" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="U48" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V48" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W48" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X48" s="5">
         <v>460</v>
       </c>
       <c r="Y48" s="5" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="Z48" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA48" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB48" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC48" s="5">
         <v>350</v>
@@ -6761,22 +6726,22 @@
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B49" s="4">
         <v>201</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G49" s="4">
         <v>1</v>
@@ -6791,13 +6756,13 @@
         <v>43983</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M49" s="7">
         <v>44348</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="O49" s="4"/>
       <c r="P49" s="4">
@@ -6813,31 +6778,31 @@
         <v>1.62</v>
       </c>
       <c r="T49" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="U49" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V49" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W49" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X49" s="5">
         <v>460</v>
       </c>
       <c r="Y49" s="5" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="Z49" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA49" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB49" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC49" s="5">
         <v>350</v>
@@ -6845,22 +6810,22 @@
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B50" s="4">
         <v>180</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="E50" s="6">
         <v>0</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G50" s="4">
         <v>1</v>
@@ -6875,13 +6840,13 @@
         <v>43983</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M50" s="7">
         <v>44348</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="O50" s="4"/>
       <c r="P50" s="4">
@@ -6897,31 +6862,31 @@
         <v>1.06</v>
       </c>
       <c r="T50" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="U50" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V50" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W50" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X50" s="5">
         <v>460</v>
       </c>
       <c r="Y50" s="5" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="Z50" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA50" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB50" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC50" s="5">
         <v>350</v>
@@ -6929,22 +6894,22 @@
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B51" s="4">
         <v>209</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E51" s="6">
         <v>0.05</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G51" s="4">
         <v>1</v>
@@ -6959,13 +6924,13 @@
         <v>43983</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M51" s="7">
         <v>44348</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="O51" s="4"/>
       <c r="P51" s="4">
@@ -6981,31 +6946,31 @@
         <v>1.55</v>
       </c>
       <c r="T51" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="U51" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V51" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W51" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X51" s="5">
         <v>460</v>
       </c>
       <c r="Y51" s="5" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="Z51" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA51" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB51" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC51" s="5">
         <v>350</v>
@@ -7013,22 +6978,22 @@
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B52" s="4">
         <v>85</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E52" s="6">
         <v>0.15</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G52" s="4">
         <v>1</v>
@@ -7046,16 +7011,16 @@
         <v>43983</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M52" s="7">
         <v>43983</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="P52" s="4">
         <v>0.50409999999999999</v>
@@ -7070,31 +7035,31 @@
         <v>1.28</v>
       </c>
       <c r="T52" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="U52" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V52" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W52" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X52" s="5">
         <v>460</v>
       </c>
       <c r="Y52" s="5" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="Z52" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA52" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB52" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC52" s="5">
         <v>350</v>
@@ -7102,22 +7067,22 @@
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B53" s="4">
         <v>93</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G53" s="4">
         <v>1</v>
@@ -7135,16 +7100,16 @@
         <v>43983</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M53" s="7">
         <v>43983</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="P53" s="4">
         <v>0.50629999999999997</v>
@@ -7159,31 +7124,31 @@
         <v>1.32</v>
       </c>
       <c r="T53" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="U53" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V53" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W53" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X53" s="5">
         <v>460</v>
       </c>
       <c r="Y53" s="5" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="Z53" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA53" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB53" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC53" s="5">
         <v>350</v>
@@ -7191,22 +7156,22 @@
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B54" s="4">
         <v>189</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="E54" s="6">
         <v>0</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G54" s="4">
         <v>1</v>
@@ -7221,13 +7186,13 @@
         <v>43983</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M54" s="7">
         <v>44348</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="O54" s="4"/>
       <c r="P54" s="4">
@@ -7243,31 +7208,31 @@
         <v>1.58</v>
       </c>
       <c r="T54" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="U54" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V54" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W54" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X54" s="5">
         <v>460</v>
       </c>
       <c r="Y54" s="5" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="Z54" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA54" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB54" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC54" s="5">
         <v>350</v>
@@ -7275,22 +7240,22 @@
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B55" s="4">
         <v>179</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E55" s="6">
         <v>0.05</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G55" s="4">
         <v>1</v>
@@ -7305,13 +7270,13 @@
         <v>43983</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M55" s="7">
         <v>44348</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="O55" s="4"/>
       <c r="P55" s="4">
@@ -7327,31 +7292,31 @@
         <v>1.57</v>
       </c>
       <c r="T55" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="U55" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V55" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W55" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X55" s="5">
         <v>460</v>
       </c>
       <c r="Y55" s="5" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="Z55" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA55" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB55" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC55" s="5">
         <v>350</v>
@@ -7359,22 +7324,22 @@
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B56" s="4">
         <v>210</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E56" s="6">
         <v>0.15</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G56" s="4">
         <v>1</v>
@@ -7389,13 +7354,13 @@
         <v>43983</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M56" s="7">
         <v>44348</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="O56" s="4"/>
       <c r="P56" s="4">
@@ -7411,31 +7376,31 @@
         <v>1.41</v>
       </c>
       <c r="T56" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="U56" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V56" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W56" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X56" s="5">
         <v>460</v>
       </c>
       <c r="Y56" s="5" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="Z56" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA56" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB56" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC56" s="5">
         <v>350</v>
@@ -7443,22 +7408,22 @@
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B57" s="4">
         <v>211</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G57" s="4">
         <v>1</v>
@@ -7473,13 +7438,13 @@
         <v>43983</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M57" s="7">
         <v>44348</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="O57" s="4"/>
       <c r="P57" s="4">
@@ -7495,31 +7460,31 @@
         <v>1.47</v>
       </c>
       <c r="T57" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="U57" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V57" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W57" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X57" s="5">
         <v>460</v>
       </c>
       <c r="Y57" s="5" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="Z57" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA57" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB57" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC57" s="5">
         <v>350</v>
@@ -7527,22 +7492,22 @@
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B58" s="4">
         <v>216</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="E58" s="6">
         <v>0</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G58" s="4">
         <v>1</v>
@@ -7560,13 +7525,13 @@
         <v>43983</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M58" s="7">
         <v>43983</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="O58" s="4"/>
       <c r="P58" s="4">
@@ -7582,31 +7547,31 @@
         <v>1.9</v>
       </c>
       <c r="T58" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="U58" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V58" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W58" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X58" s="5">
         <v>460</v>
       </c>
       <c r="Y58" s="5" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="Z58" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA58" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB58" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC58" s="5">
         <v>350</v>
@@ -7614,22 +7579,22 @@
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B59" s="4">
         <v>181</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E59" s="6">
         <v>0.05</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G59" s="4">
         <v>1</v>
@@ -7644,13 +7609,13 @@
         <v>43983</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M59" s="7">
         <v>44348</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="O59" s="4"/>
       <c r="P59" s="4">
@@ -7666,31 +7631,31 @@
         <v>1.59</v>
       </c>
       <c r="T59" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="U59" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V59" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W59" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X59" s="5">
         <v>460</v>
       </c>
       <c r="Y59" s="5" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="Z59" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA59" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB59" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC59" s="5">
         <v>350</v>
@@ -7698,22 +7663,22 @@
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B60" s="4">
         <v>182</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E60" s="6">
         <v>0.15</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G60" s="4">
         <v>1</v>
@@ -7728,13 +7693,13 @@
         <v>43983</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M60" s="7">
         <v>44348</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="O60" s="4"/>
       <c r="P60" s="4">
@@ -7750,31 +7715,31 @@
         <v>1.72</v>
       </c>
       <c r="T60" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="U60" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V60" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W60" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X60" s="5">
         <v>460</v>
       </c>
       <c r="Y60" s="5" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="Z60" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA60" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB60" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC60" s="5">
         <v>350</v>
@@ -7782,22 +7747,22 @@
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B61" s="4">
         <v>135</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G61" s="4">
         <v>1</v>
@@ -7815,16 +7780,16 @@
         <v>43983</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M61" s="7">
         <v>43983</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P61" s="4">
         <v>0.501</v>
@@ -7839,31 +7804,31 @@
         <v>1.78</v>
       </c>
       <c r="T61" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="U61" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V61" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W61" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X61" s="5">
         <v>460</v>
       </c>
       <c r="Y61" s="5" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="Z61" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA61" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB61" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC61" s="5">
         <v>350</v>
@@ -7871,22 +7836,22 @@
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B62" s="4">
         <v>186</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="E62" s="6">
         <v>0</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G62" s="4">
         <v>1</v>
@@ -7901,13 +7866,13 @@
         <v>43983</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M62" s="7">
         <v>44348</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="O62" s="4"/>
       <c r="P62" s="4">
@@ -7923,31 +7888,31 @@
         <v>1.77</v>
       </c>
       <c r="T62" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="U62" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V62" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W62" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X62" s="5">
         <v>460</v>
       </c>
       <c r="Y62" s="5" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="Z62" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA62" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB62" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC62" s="5">
         <v>350</v>
@@ -7955,22 +7920,22 @@
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B63" s="4">
         <v>187</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E63" s="6">
         <v>0.05</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G63" s="4">
         <v>1</v>
@@ -7985,13 +7950,13 @@
         <v>43983</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M63" s="7">
         <v>44348</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="O63" s="4"/>
       <c r="P63" s="4">
@@ -8007,31 +7972,31 @@
         <v>1.34</v>
       </c>
       <c r="T63" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="U63" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V63" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W63" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X63" s="5">
         <v>460</v>
       </c>
       <c r="Y63" s="5" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="Z63" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA63" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB63" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC63" s="5">
         <v>350</v>
@@ -8039,22 +8004,22 @@
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B64" s="4">
         <v>184</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E64" s="6">
         <v>0.15</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G64" s="4">
         <v>1</v>
@@ -8069,13 +8034,13 @@
         <v>43983</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M64" s="7">
         <v>44348</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="O64" s="4"/>
       <c r="P64" s="4">
@@ -8091,31 +8056,31 @@
         <v>1.71</v>
       </c>
       <c r="T64" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="U64" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V64" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W64" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X64" s="5">
         <v>460</v>
       </c>
       <c r="Y64" s="5" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="Z64" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA64" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB64" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC64" s="5">
         <v>350</v>
@@ -8123,22 +8088,22 @@
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B65" s="4">
         <v>188</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G65" s="4">
         <v>1</v>
@@ -8153,13 +8118,13 @@
         <v>43983</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M65" s="7">
         <v>44348</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O65" s="4"/>
       <c r="P65" s="4">
@@ -8175,31 +8140,31 @@
         <v>1.42</v>
       </c>
       <c r="T65" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="U65" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V65" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W65" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X65" s="5">
         <v>460</v>
       </c>
       <c r="Y65" s="5" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="Z65" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA65" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB65" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC65" s="5">
         <v>350</v>
@@ -8207,22 +8172,22 @@
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B66" s="4">
         <v>98</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="E66" s="6">
         <v>0</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G66" s="4">
         <v>3</v>
@@ -8240,16 +8205,16 @@
         <v>44468</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M66" s="7">
         <v>44468</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="P66" s="4">
         <v>0.50560000000000005</v>
@@ -8264,31 +8229,31 @@
         <v>1.96</v>
       </c>
       <c r="T66" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="U66" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V66" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W66" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X66" s="5">
         <v>460</v>
       </c>
       <c r="Y66" s="5" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="Z66" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA66" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB66" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC66" s="5">
         <v>350</v>
@@ -8296,22 +8261,22 @@
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B67" s="4">
         <v>65</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E67" s="6">
         <v>0.05</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G67" s="4">
         <v>3</v>
@@ -8329,16 +8294,16 @@
         <v>44468</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M67" s="7">
         <v>44468</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="O67" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="P67" s="4">
         <v>0.50460000000000005</v>
@@ -8353,31 +8318,31 @@
         <v>1.39</v>
       </c>
       <c r="T67" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="U67" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V67" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W67" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X67" s="5">
         <v>460</v>
       </c>
       <c r="Y67" s="5" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="Z67" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA67" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB67" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC67" s="5">
         <v>350</v>
@@ -8385,22 +8350,22 @@
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B68" s="4">
         <v>194</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E68" s="6">
         <v>0.15</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G68" s="4">
         <v>3</v>
@@ -8415,13 +8380,13 @@
         <v>44468</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M68" s="7">
         <v>44468</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="O68" s="4"/>
       <c r="P68" s="4">
@@ -8437,31 +8402,31 @@
         <v>1.67</v>
       </c>
       <c r="T68" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="U68" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V68" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W68" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X68" s="5">
         <v>460</v>
       </c>
       <c r="Y68" s="5" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="Z68" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA68" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB68" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC68" s="5">
         <v>350</v>
@@ -8469,22 +8434,22 @@
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B69" s="4">
         <v>62</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G69" s="4">
         <v>3</v>
@@ -8502,16 +8467,16 @@
         <v>44468</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M69" s="7">
         <v>44284</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="O69" s="4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="P69" s="4">
         <v>0.49969999999999998</v>
@@ -8526,31 +8491,31 @@
         <v>1.77</v>
       </c>
       <c r="T69" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="U69" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V69" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W69" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X69" s="5">
         <v>460</v>
       </c>
       <c r="Y69" s="5" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="Z69" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA69" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB69" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC69" s="5">
         <v>350</v>
@@ -8558,22 +8523,22 @@
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B70" s="4">
         <v>193</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="E70" s="6">
         <v>0</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G70" s="4">
         <v>3</v>
@@ -8588,13 +8553,13 @@
         <v>44468</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M70" s="7">
         <v>44468</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="O70" s="4"/>
       <c r="P70" s="4">
@@ -8610,31 +8575,31 @@
         <v>1.77</v>
       </c>
       <c r="T70" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="U70" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V70" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W70" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X70" s="5">
         <v>460</v>
       </c>
       <c r="Y70" s="5" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="Z70" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA70" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB70" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC70" s="5">
         <v>350</v>
@@ -8642,22 +8607,22 @@
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B71" s="4">
         <v>169</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E71" s="6">
         <v>0.05</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G71" s="4">
         <v>3</v>
@@ -8675,16 +8640,16 @@
         <v>44468</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M71" s="7">
         <v>44468</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="P71" s="4">
         <v>0.50260000000000005</v>
@@ -8699,31 +8664,31 @@
         <v>1.92</v>
       </c>
       <c r="T71" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="U71" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V71" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W71" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X71" s="5">
         <v>460</v>
       </c>
       <c r="Y71" s="5" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="Z71" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA71" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB71" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC71" s="5">
         <v>350</v>
@@ -8731,22 +8696,22 @@
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B72" s="4">
         <v>170</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E72" s="6">
         <v>0.15</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G72" s="4">
         <v>3</v>
@@ -8764,16 +8729,16 @@
         <v>44468</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M72" s="7">
         <v>44468</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="P72" s="4">
         <v>0.50149999999999995</v>
@@ -8788,31 +8753,31 @@
         <v>1.85</v>
       </c>
       <c r="T72" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="U72" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V72" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W72" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X72" s="5">
         <v>460</v>
       </c>
       <c r="Y72" s="5" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="Z72" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA72" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB72" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC72" s="5">
         <v>350</v>
@@ -8820,22 +8785,22 @@
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B73" s="4">
         <v>47</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G73" s="4">
         <v>3</v>
@@ -8853,16 +8818,16 @@
         <v>44468</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M73" s="7">
         <v>44468</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="P73" s="4">
         <v>0.503</v>
@@ -8877,31 +8842,31 @@
         <v>1.65</v>
       </c>
       <c r="T73" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="U73" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V73" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W73" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X73" s="5">
         <v>460</v>
       </c>
       <c r="Y73" s="5" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="Z73" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA73" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB73" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC73" s="5">
         <v>350</v>
@@ -8909,22 +8874,22 @@
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B74" s="4">
         <v>80</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="E74" s="6">
         <v>0</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G74" s="4">
         <v>3</v>
@@ -8942,16 +8907,16 @@
         <v>44468</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M74" s="7">
         <v>44468</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="O74" s="4" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="P74" s="4">
         <v>0.50619999999999998</v>
@@ -8966,31 +8931,31 @@
         <v>1.25</v>
       </c>
       <c r="T74" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="U74" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V74" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W74" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X74" s="5">
         <v>460</v>
       </c>
       <c r="Y74" s="5" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="Z74" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA74" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB74" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC74" s="5">
         <v>350</v>
@@ -8998,22 +8963,22 @@
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B75" s="4">
         <v>72</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E75" s="6">
         <v>0.05</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G75" s="4">
         <v>3</v>
@@ -9031,16 +8996,16 @@
         <v>44468</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M75" s="7">
         <v>44468</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="O75" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="P75" s="4">
         <v>0.50129999999999997</v>
@@ -9055,31 +9020,31 @@
         <v>1.93</v>
       </c>
       <c r="T75" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="U75" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V75" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W75" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X75" s="5">
         <v>460</v>
       </c>
       <c r="Y75" s="5" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="Z75" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA75" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB75" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC75" s="5">
         <v>350</v>
@@ -9087,22 +9052,22 @@
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B76" s="4">
         <v>162</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E76" s="6">
         <v>0.15</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G76" s="4">
         <v>3</v>
@@ -9120,16 +9085,16 @@
         <v>44468</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M76" s="7">
         <v>44468</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="P76" s="4">
         <v>0.50660000000000005</v>
@@ -9144,31 +9109,31 @@
         <v>1.86</v>
       </c>
       <c r="T76" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="U76" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V76" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W76" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X76" s="5">
         <v>460</v>
       </c>
       <c r="Y76" s="5" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="Z76" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA76" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB76" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC76" s="5">
         <v>350</v>
@@ -9176,22 +9141,22 @@
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B77" s="4">
         <v>68</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G77" s="4">
         <v>3</v>
@@ -9209,16 +9174,16 @@
         <v>44468</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M77" s="7">
         <v>44468</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="P77" s="4">
         <v>0.50600000000000001</v>
@@ -9233,31 +9198,31 @@
         <v>1.47</v>
       </c>
       <c r="T77" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="U77" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V77" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W77" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X77" s="5">
         <v>460</v>
       </c>
       <c r="Y77" s="5" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="Z77" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA77" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB77" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC77" s="5">
         <v>350</v>
@@ -9265,22 +9230,22 @@
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B78" s="4">
         <v>78</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="E78" s="6">
         <v>0</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G78" s="4">
         <v>3</v>
@@ -9298,16 +9263,16 @@
         <v>44468</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M78" s="7">
         <v>44468</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="O78" s="4" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="P78" s="4">
         <v>0.50239999999999996</v>
@@ -9322,31 +9287,31 @@
         <v>1.78</v>
       </c>
       <c r="T78" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="U78" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V78" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W78" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X78" s="5">
         <v>460</v>
       </c>
       <c r="Y78" s="5" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="Z78" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA78" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB78" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC78" s="5">
         <v>350</v>
@@ -9354,22 +9319,22 @@
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B79" s="4">
         <v>101</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E79" s="6">
         <v>0.05</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G79" s="4">
         <v>3</v>
@@ -9387,16 +9352,16 @@
         <v>44468</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M79" s="7">
         <v>44468</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="O79" s="4" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="P79" s="4">
         <v>0.49940000000000001</v>
@@ -9411,31 +9376,31 @@
         <v>1.78</v>
       </c>
       <c r="T79" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="U79" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V79" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W79" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X79" s="5">
         <v>460</v>
       </c>
       <c r="Y79" s="5" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="Z79" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA79" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB79" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC79" s="5">
         <v>350</v>
@@ -9443,22 +9408,22 @@
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B80" s="4">
         <v>163</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E80" s="6">
         <v>0.15</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G80" s="4">
         <v>3</v>
@@ -9476,16 +9441,16 @@
         <v>44468</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M80" s="7">
         <v>44468</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="P80" s="4">
         <v>0.50749999999999995</v>
@@ -9500,31 +9465,31 @@
         <v>1.28</v>
       </c>
       <c r="T80" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="U80" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V80" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W80" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X80" s="5">
         <v>460</v>
       </c>
       <c r="Y80" s="5" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="Z80" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA80" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB80" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC80" s="5">
         <v>350</v>
@@ -9532,22 +9497,22 @@
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B81" s="4">
         <v>73</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G81" s="4">
         <v>3</v>
@@ -9565,16 +9530,16 @@
         <v>44468</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M81" s="7">
         <v>44468</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O81" s="4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="P81" s="4">
         <v>0.50190000000000001</v>
@@ -9589,31 +9554,31 @@
         <v>1.62</v>
       </c>
       <c r="T81" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="U81" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V81" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W81" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X81" s="5">
         <v>460</v>
       </c>
       <c r="Y81" s="5" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="Z81" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA81" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB81" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC81" s="5">
         <v>350</v>
@@ -9621,22 +9586,22 @@
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B82" s="4">
         <v>104</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="E82" s="6">
         <v>0</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G82" s="4">
         <v>3</v>
@@ -9654,16 +9619,16 @@
         <v>44468</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M82" s="7">
         <v>44468</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="O82" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="P82" s="4">
         <v>0.49919999999999998</v>
@@ -9678,31 +9643,31 @@
         <v>1.44</v>
       </c>
       <c r="T82" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="U82" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V82" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W82" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X82" s="5">
         <v>460</v>
       </c>
       <c r="Y82" s="5" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="Z82" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA82" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB82" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC82" s="5">
         <v>350</v>
@@ -9710,22 +9675,22 @@
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B83" s="4">
         <v>50</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E83" s="6">
         <v>0.05</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G83" s="4">
         <v>3</v>
@@ -9743,16 +9708,16 @@
         <v>44468</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M83" s="7">
         <v>44468</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="O83" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="P83" s="4">
         <v>0.50490000000000002</v>
@@ -9767,31 +9732,31 @@
         <v>1.48</v>
       </c>
       <c r="T83" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="U83" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V83" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W83" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X83" s="5">
         <v>460</v>
       </c>
       <c r="Y83" s="5" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="Z83" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA83" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB83" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC83" s="5">
         <v>350</v>
@@ -9799,22 +9764,22 @@
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B84" s="4">
         <v>94</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E84" s="6">
         <v>0.15</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G84" s="4">
         <v>3</v>
@@ -9832,16 +9797,16 @@
         <v>44468</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M84" s="7">
         <v>44468</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="O84" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="P84" s="4">
         <v>0.50729999999999997</v>
@@ -9856,31 +9821,31 @@
         <v>1.65</v>
       </c>
       <c r="T84" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="U84" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V84" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W84" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X84" s="5">
         <v>460</v>
       </c>
       <c r="Y84" s="5" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="Z84" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA84" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB84" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC84" s="5">
         <v>350</v>
@@ -9888,22 +9853,22 @@
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B85" s="4">
         <v>52</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G85" s="4">
         <v>3</v>
@@ -9921,16 +9886,16 @@
         <v>44468</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M85" s="7">
         <v>44468</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="P85" s="4">
         <v>0.50380000000000003</v>
@@ -9945,31 +9910,31 @@
         <v>1.59</v>
       </c>
       <c r="T85" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="U85" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V85" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W85" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X85" s="5">
         <v>460</v>
       </c>
       <c r="Y85" s="5" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="Z85" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA85" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB85" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC85" s="5">
         <v>350</v>
@@ -9977,22 +9942,22 @@
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B86" s="4">
         <v>206</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="E86" s="6">
         <v>0</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G86" s="4">
         <v>3</v>
@@ -10007,13 +9972,13 @@
         <v>44468</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M86" s="7">
         <v>44468</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="O86" s="4"/>
       <c r="P86" s="4">
@@ -10029,31 +9994,31 @@
         <v>1.86</v>
       </c>
       <c r="T86" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="U86" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V86" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W86" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X86" s="5">
         <v>460</v>
       </c>
       <c r="Y86" s="5" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="Z86" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA86" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB86" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC86" s="5">
         <v>350</v>
@@ -10061,22 +10026,22 @@
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B87" s="4">
         <v>208</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E87" s="6">
         <v>0.05</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G87" s="4">
         <v>3</v>
@@ -10091,13 +10056,13 @@
         <v>44468</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M87" s="7">
         <v>44468</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="O87" s="4"/>
       <c r="P87" s="4">
@@ -10113,31 +10078,31 @@
         <v>1.43</v>
       </c>
       <c r="T87" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="U87" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V87" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W87" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X87" s="5">
         <v>460</v>
       </c>
       <c r="Y87" s="5" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="Z87" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA87" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB87" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC87" s="5">
         <v>350</v>
@@ -10145,22 +10110,22 @@
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B88" s="4">
         <v>171</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E88" s="6">
         <v>0.15</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G88" s="4">
         <v>3</v>
@@ -10178,16 +10143,16 @@
         <v>44468</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M88" s="7">
         <v>44468</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="O88" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="P88" s="4">
         <v>0.50229999999999997</v>
@@ -10202,31 +10167,31 @@
         <v>1.78</v>
       </c>
       <c r="T88" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="U88" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V88" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W88" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X88" s="5">
         <v>460</v>
       </c>
       <c r="Y88" s="5" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="Z88" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA88" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB88" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC88" s="5">
         <v>350</v>
@@ -10234,22 +10199,22 @@
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B89" s="4">
         <v>55</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G89" s="4">
         <v>3</v>
@@ -10267,16 +10232,16 @@
         <v>44468</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M89" s="7">
         <v>44468</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="O89" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="P89" s="4">
         <v>0.50039999999999996</v>
@@ -10291,31 +10256,31 @@
         <v>1.49</v>
       </c>
       <c r="T89" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="U89" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V89" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W89" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X89" s="5">
         <v>460</v>
       </c>
       <c r="Y89" s="5" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="Z89" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA89" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB89" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC89" s="5">
         <v>350</v>
@@ -10323,22 +10288,22 @@
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B90" s="4">
         <v>84</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="E90" s="6">
         <v>0</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G90" s="4">
         <v>3</v>
@@ -10356,16 +10321,16 @@
         <v>44468</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M90" s="7">
         <v>44468</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="O90" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="P90" s="4">
         <v>0.50219999999999998</v>
@@ -10380,31 +10345,31 @@
         <v>1.72</v>
       </c>
       <c r="T90" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="U90" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V90" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W90" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X90" s="5">
         <v>460</v>
       </c>
       <c r="Y90" s="5" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="Z90" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA90" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB90" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC90" s="5">
         <v>350</v>
@@ -10412,22 +10377,22 @@
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B91" s="4">
         <v>107</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E91" s="6">
         <v>0.05</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G91" s="4">
         <v>3</v>
@@ -10445,16 +10410,16 @@
         <v>44468</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M91" s="7">
         <v>44468</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="O91" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="P91" s="4">
         <v>0.50309999999999999</v>
@@ -10469,31 +10434,31 @@
         <v>1.41</v>
       </c>
       <c r="T91" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="U91" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V91" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W91" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X91" s="5">
         <v>460</v>
       </c>
       <c r="Y91" s="5" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="Z91" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA91" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB91" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC91" s="5">
         <v>350</v>
@@ -10501,22 +10466,22 @@
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B92" s="4">
         <v>164</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E92" s="6">
         <v>0.15</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G92" s="4">
         <v>3</v>
@@ -10534,16 +10499,16 @@
         <v>44468</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M92" s="7">
         <v>44468</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="O92" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="P92" s="4">
         <v>0.50600000000000001</v>
@@ -10558,31 +10523,31 @@
         <v>1.82</v>
       </c>
       <c r="T92" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="U92" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V92" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W92" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X92" s="5">
         <v>460</v>
       </c>
       <c r="Y92" s="5" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="Z92" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA92" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB92" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC92" s="5">
         <v>350</v>
@@ -10590,22 +10555,22 @@
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B93" s="4">
         <v>172</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G93" s="4">
         <v>3</v>
@@ -10623,16 +10588,16 @@
         <v>44468</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M93" s="7">
         <v>44468</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="O93" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="P93" s="4">
         <v>0.50070000000000003</v>
@@ -10647,31 +10612,31 @@
         <v>1.99</v>
       </c>
       <c r="T93" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="U93" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V93" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W93" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X93" s="5">
         <v>460</v>
       </c>
       <c r="Y93" s="5" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="Z93" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA93" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB93" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC93" s="5">
         <v>350</v>
@@ -10679,22 +10644,22 @@
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B94" s="4">
         <v>58</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="E94" s="6">
         <v>0</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G94" s="4">
         <v>3</v>
@@ -10712,16 +10677,16 @@
         <v>44468</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M94" s="7">
         <v>44468</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="O94" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="P94" s="4">
         <v>0.50509999999999999</v>
@@ -10736,31 +10701,31 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="T94" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="U94" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V94" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W94" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X94" s="5">
         <v>460</v>
       </c>
       <c r="Y94" s="5" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="Z94" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA94" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB94" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC94" s="5">
         <v>350</v>
@@ -10768,22 +10733,22 @@
     </row>
     <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B95" s="4">
         <v>207</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E95" s="6">
         <v>0.05</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G95" s="4">
         <v>3</v>
@@ -10798,13 +10763,13 @@
         <v>44468</v>
       </c>
       <c r="L95" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M95" s="7">
         <v>44468</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="O95" s="4"/>
       <c r="P95" s="4">
@@ -10820,31 +10785,31 @@
         <v>1.83</v>
       </c>
       <c r="T95" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="U95" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V95" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W95" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X95" s="5">
         <v>460</v>
       </c>
       <c r="Y95" s="5" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="Z95" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA95" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB95" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC95" s="5">
         <v>350</v>
@@ -10852,22 +10817,22 @@
     </row>
     <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B96" s="5">
         <v>213</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E96" s="6">
         <v>0.15</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G96" s="4">
         <v>3</v>
@@ -10885,13 +10850,13 @@
         <v>44468</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M96" s="7">
         <v>44468</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="P96" s="4">
         <v>0.50460000000000005</v>
@@ -10906,31 +10871,31 @@
         <v>2</v>
       </c>
       <c r="T96" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="U96" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V96" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W96" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X96" s="5">
         <v>460</v>
       </c>
       <c r="Y96" s="5" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="Z96" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA96" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB96" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC96" s="5">
         <v>350</v>
@@ -10938,22 +10903,22 @@
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B97" s="4">
         <v>174</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G97" s="4">
         <v>3</v>
@@ -10971,16 +10936,16 @@
         <v>44468</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M97" s="7">
         <v>44468</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="O97" s="4" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="P97" s="4">
         <v>0.49530000000000002</v>
@@ -10995,31 +10960,31 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="T97" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="U97" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="V97" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="W97" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="X97" s="5">
         <v>460</v>
       </c>
       <c r="Y97" s="5" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="Z97" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AA97" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AB97" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AC97" s="5">
         <v>350</v>
